--- a/CMMSAPIs/Upload/45/2/0/Import_PM_Plan.xlsx
+++ b/CMMSAPIs/Upload/45/2/0/Import_PM_Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/440073f3f46a9d0e/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3001C5-B70B-466C-9866-46601E07556F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A6B72031-371F-43D2-8DE2-A0B74CA94499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE675CFB-EC53-4864-BAE5-7C01421708B4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Plan Name</t>
   </si>
@@ -59,58 +59,52 @@
     <t>CheckList</t>
   </si>
   <si>
+    <t>Eq Name</t>
+  </si>
+  <si>
+    <t>CL_Daily</t>
+  </si>
+  <si>
+    <t>CL_Month</t>
+  </si>
+  <si>
+    <t>CL_Weekly</t>
+  </si>
+  <si>
+    <t>Eq_Location</t>
+  </si>
+  <si>
+    <t>INV1</t>
+  </si>
+  <si>
+    <t>get all checklist for given plant, frew and eq type</t>
+  </si>
+  <si>
+    <t>Use it to validate Checklist</t>
+  </si>
+  <si>
     <t>Bellary</t>
   </si>
   <si>
     <t>Block1_Plan</t>
   </si>
   <si>
-    <t>Eq Name</t>
-  </si>
-  <si>
-    <t>CL_Daily</t>
-  </si>
-  <si>
-    <t>CL_Month</t>
-  </si>
-  <si>
-    <t>CL_Weekly</t>
+    <t>INVERTER</t>
+  </si>
+  <si>
+    <t>Inv_Block1</t>
+  </si>
+  <si>
+    <t>Inv_Block1_Inv1</t>
+  </si>
+  <si>
+    <t>MONTHLY</t>
+  </si>
+  <si>
+    <t>SITE ENGINEER</t>
   </si>
   <si>
     <t>CL_Month_2</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>Inv_Block1_Inv1</t>
-  </si>
-  <si>
-    <t>Eq_Location</t>
-  </si>
-  <si>
-    <t>CL_Month_1</t>
-  </si>
-  <si>
-    <t>INV1</t>
-  </si>
-  <si>
-    <t>Inv_Block1</t>
-  </si>
-  <si>
-    <t>get all checklist for given plant, frew and eq type</t>
-  </si>
-  <si>
-    <t>Use it to validate Checklist</t>
-  </si>
-  <si>
-    <t>Sujit Kumar</t>
-  </si>
-  <si>
-    <t>Amit Kumar</t>
-  </si>
-  <si>
-    <t>Inverter</t>
   </si>
 </sst>
 </file>
@@ -167,11 +161,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,7 +505,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -525,70 +525,52 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F2" s="3">
         <v>45200</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3">
-        <v>45207</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -611,24 +593,24 @@
   <sheetData>
     <row r="1" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
